--- a/data/swaption_vol_data.xlsx
+++ b/data/swaption_vol_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markhendricks/Projects/finm-fiderivs-2023/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markhendricks/Projects/finm-fiderivs-2024/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA100B4E-6F20-B54F-8EAB-A11FCA98E8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048B05E0-77DA-9949-BC57-156CF2B8E452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43040" yWindow="-8660" windowWidth="25600" windowHeight="28300" xr2:uid="{E779290E-692C-E24A-8A1E-B527A51F4A58}"/>
+    <workbookView xWindow="30240" yWindow="-8660" windowWidth="25600" windowHeight="28300" xr2:uid="{E779290E-692C-E24A-8A1E-B527A51F4A58}"/>
   </bookViews>
   <sheets>
     <sheet name="bloomberg vcub" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,7 +159,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -265,7 +265,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,7 +407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -479,40 +479,40 @@
         <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>45047</v>
+        <v>45342</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>84.55</v>
+        <v>54.54</v>
       </c>
       <c r="H2">
-        <v>60.33</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="I2">
-        <v>53.46</v>
+        <v>35.94</v>
       </c>
       <c r="J2">
-        <v>50.76</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="K2">
-        <v>48.46</v>
+        <v>32.83</v>
       </c>
       <c r="L2">
-        <v>46.5</v>
+        <v>31.71</v>
       </c>
       <c r="M2">
-        <v>44.84</v>
+        <v>30.86</v>
       </c>
       <c r="N2">
-        <v>42.29</v>
+        <v>29.83</v>
       </c>
       <c r="O2">
-        <v>39.44</v>
+        <v>29.54</v>
       </c>
     </row>
   </sheetData>
